--- a/Config/Validation_targets.xlsx
+++ b/Config/Validation_targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF24827-9136-4DBE-B064-474E28ECF0FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7158D05E-2BBA-44FC-B03E-D60BEC23EC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="5895" xr2:uid="{D85E2F61-C488-4580-A3B5-BB7B12090529}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6855" xr2:uid="{D85E2F61-C488-4580-A3B5-BB7B12090529}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="63">
   <si>
     <t>Source</t>
   </si>
@@ -197,6 +197,24 @@
   <si>
     <t>30-49</t>
   </si>
+  <si>
+    <t>Cervical cancer incidence in women</t>
+  </si>
+  <si>
+    <t>Globocan 2020; (Sung, 2021, CA)</t>
+  </si>
+  <si>
+    <t>70-79</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>See Config/Reweighted_GlobocanCC_rates.xlsx file for calculations</t>
+  </si>
+  <si>
+    <t>KZN CC rate (HIV 4x risk); adjusted older ages</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +266,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +297,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +334,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{C9B4B129-1BD0-4C6B-B109-B006C61BEDC4}"/>
@@ -626,22 +661,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA85FA-9EDC-445A-B58C-A5FD6A4B4BAC}">
-  <dimension ref="A1:BB354"/>
+  <dimension ref="A1:BB382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="K364" sqref="K364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8400,7 +8437,7 @@
         <v>15-29</v>
       </c>
       <c r="D330" s="3">
-        <f>D329+1</f>
+        <f t="shared" ref="D330:D341" si="16">D329+1</f>
         <v>2006</v>
       </c>
       <c r="G330" s="26">
@@ -8421,11 +8458,11 @@
         <v>34</v>
       </c>
       <c r="C331" s="24" t="str">
-        <f t="shared" ref="C331:C341" si="16">C330</f>
+        <f t="shared" ref="C331:C341" si="17">C330</f>
         <v>15-29</v>
       </c>
       <c r="D331" s="3">
-        <f>D330+1</f>
+        <f t="shared" si="16"/>
         <v>2007</v>
       </c>
       <c r="G331" s="26">
@@ -8446,11 +8483,11 @@
         <v>34</v>
       </c>
       <c r="C332" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D332" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D332" s="3">
-        <f>D331+1</f>
         <v>2008</v>
       </c>
       <c r="G332" s="26">
@@ -8471,11 +8508,11 @@
         <v>34</v>
       </c>
       <c r="C333" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D333" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D333" s="3">
-        <f>D332+1</f>
         <v>2009</v>
       </c>
       <c r="G333" s="26">
@@ -8496,11 +8533,11 @@
         <v>34</v>
       </c>
       <c r="C334" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D334" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D334" s="3">
-        <f>D333+1</f>
         <v>2010</v>
       </c>
       <c r="G334" s="26">
@@ -8521,11 +8558,11 @@
         <v>34</v>
       </c>
       <c r="C335" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D335" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D335" s="3">
-        <f>D334+1</f>
         <v>2011</v>
       </c>
       <c r="G335" s="26">
@@ -8546,11 +8583,11 @@
         <v>34</v>
       </c>
       <c r="C336" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D336" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D336" s="3">
-        <f>D335+1</f>
         <v>2012</v>
       </c>
       <c r="G336" s="26">
@@ -8571,11 +8608,11 @@
         <v>34</v>
       </c>
       <c r="C337" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D337" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D337" s="3">
-        <f>D336+1</f>
         <v>2013</v>
       </c>
       <c r="G337" s="26">
@@ -8596,11 +8633,11 @@
         <v>34</v>
       </c>
       <c r="C338" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D338" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D338" s="3">
-        <f>D337+1</f>
         <v>2014</v>
       </c>
       <c r="G338" s="26">
@@ -8621,11 +8658,11 @@
         <v>34</v>
       </c>
       <c r="C339" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D339" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D339" s="3">
-        <f>D338+1</f>
         <v>2015</v>
       </c>
       <c r="G339" s="26">
@@ -8646,11 +8683,11 @@
         <v>34</v>
       </c>
       <c r="C340" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D340" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D340" s="3">
-        <f>D339+1</f>
         <v>2016</v>
       </c>
       <c r="G340" s="26">
@@ -8671,11 +8708,11 @@
         <v>34</v>
       </c>
       <c r="C341" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>15-29</v>
+      </c>
+      <c r="D341" s="3">
         <f t="shared" si="16"/>
-        <v>15-29</v>
-      </c>
-      <c r="D341" s="3">
-        <f>D340+1</f>
         <v>2017</v>
       </c>
       <c r="G341" s="26">
@@ -8744,11 +8781,11 @@
         <v>34</v>
       </c>
       <c r="C344" s="24" t="str">
-        <f t="shared" ref="C344:C354" si="17">C343</f>
+        <f t="shared" ref="C344:C354" si="18">C343</f>
         <v>30-49</v>
       </c>
       <c r="D344" s="3">
-        <f t="shared" ref="D344:D354" si="18">D343+1</f>
+        <f t="shared" ref="D344:D354" si="19">D343+1</f>
         <v>2007</v>
       </c>
       <c r="G344" s="27">
@@ -8769,11 +8806,11 @@
         <v>34</v>
       </c>
       <c r="C345" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D345" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2008</v>
       </c>
       <c r="G345" s="27">
@@ -8794,11 +8831,11 @@
         <v>34</v>
       </c>
       <c r="C346" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D346" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2009</v>
       </c>
       <c r="G346" s="27">
@@ -8819,11 +8856,11 @@
         <v>34</v>
       </c>
       <c r="C347" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D347" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2010</v>
       </c>
       <c r="G347" s="27">
@@ -8844,11 +8881,11 @@
         <v>34</v>
       </c>
       <c r="C348" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D348" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2011</v>
       </c>
       <c r="G348" s="27">
@@ -8869,11 +8906,11 @@
         <v>34</v>
       </c>
       <c r="C349" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D349" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2012</v>
       </c>
       <c r="G349" s="27">
@@ -8894,11 +8931,11 @@
         <v>34</v>
       </c>
       <c r="C350" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D350" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
       <c r="G350" s="27">
@@ -8919,11 +8956,11 @@
         <v>34</v>
       </c>
       <c r="C351" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D351" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2014</v>
       </c>
       <c r="G351" s="27">
@@ -8944,11 +8981,11 @@
         <v>34</v>
       </c>
       <c r="C352" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D352" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2015</v>
       </c>
       <c r="G352" s="27">
@@ -8961,7 +8998,7 @@
         <v>3.6319018399999998</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>51</v>
       </c>
@@ -8969,7 +9006,7 @@
         <v>34</v>
       </c>
       <c r="C353" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D353" s="3">
@@ -8986,7 +9023,7 @@
         <v>3.6932515339999998</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>51</v>
       </c>
@@ -8994,11 +9031,11 @@
         <v>34</v>
       </c>
       <c r="C354" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30-49</v>
       </c>
       <c r="D354" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2017</v>
       </c>
       <c r="G354" s="27">
@@ -9009,6 +9046,512 @@
       </c>
       <c r="I354" s="27">
         <v>2.957055215</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C355" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D355" s="29">
+        <v>2020</v>
+      </c>
+      <c r="E355" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G355" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B356" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C356" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D356" s="29">
+        <v>2020</v>
+      </c>
+      <c r="E356" s="29">
+        <v>2</v>
+      </c>
+      <c r="G356" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C357" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D357" s="29">
+        <v>2020</v>
+      </c>
+      <c r="E357" s="29">
+        <v>2</v>
+      </c>
+      <c r="G357" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C358" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E358">
+        <v>14</v>
+      </c>
+      <c r="G358" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J358" s="24"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C359" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E359">
+        <v>114</v>
+      </c>
+      <c r="G359" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="J359" s="24"/>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C360" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E360">
+        <v>459</v>
+      </c>
+      <c r="G360" s="27">
+        <v>17.7</v>
+      </c>
+      <c r="J360" s="24"/>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C361" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D361" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E361">
+        <v>851</v>
+      </c>
+      <c r="G361" s="27">
+        <v>31.9</v>
+      </c>
+      <c r="J361" s="24"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C362" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E362">
+        <v>1171</v>
+      </c>
+      <c r="G362" s="27">
+        <v>49.3</v>
+      </c>
+      <c r="J362" s="24"/>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C363" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D363" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E363">
+        <v>1283</v>
+      </c>
+      <c r="G363" s="27">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="J363" s="24"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C364" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D364" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E364">
+        <v>1347</v>
+      </c>
+      <c r="G364" s="27">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="J364" s="24"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C365" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D365" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E365">
+        <v>1290</v>
+      </c>
+      <c r="G365" s="27">
+        <v>92.1</v>
+      </c>
+      <c r="J365" s="24"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C366" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E366">
+        <v>1136</v>
+      </c>
+      <c r="G366" s="27">
+        <v>96</v>
+      </c>
+      <c r="J366" s="24"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C367" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D367" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E367">
+        <v>960</v>
+      </c>
+      <c r="G367" s="27">
+        <v>96.9</v>
+      </c>
+      <c r="J367" s="24"/>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C368" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D368" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E368">
+        <v>742</v>
+      </c>
+      <c r="G368" s="27">
+        <v>94.5</v>
+      </c>
+      <c r="J368" s="24"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D369" s="24">
+        <v>2020</v>
+      </c>
+      <c r="E369">
+        <v>519</v>
+      </c>
+      <c r="G369" s="27">
+        <v>96.8</v>
+      </c>
+      <c r="J369" s="24"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B370" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C370" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D370" s="29">
+        <v>2020</v>
+      </c>
+      <c r="E370" s="29">
+        <v>924</v>
+      </c>
+      <c r="G370" s="30">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A371" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C371" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371">
+        <v>2020</v>
+      </c>
+      <c r="G371" s="27">
+        <v>0.6201231945624468</v>
+      </c>
+      <c r="K371" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C372" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G372" s="27">
+        <v>6.2706329113924051</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C373" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D373" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G373" s="27">
+        <v>21.889283653846149</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C374" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G374" s="27">
+        <v>44.364004807692304</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C375" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D375" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G375" s="27">
+        <v>67.143073789044792</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C376" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D376" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G376" s="27">
+        <v>85.961502942507948</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C377" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D377" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G377" s="27">
+        <v>127.77812147777082</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C378" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D378" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G378" s="27">
+        <v>144.57450845335003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A379" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C379" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G379" s="27">
+        <v>150.41399999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C380" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D380" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G380" s="27">
+        <v>151.82413124999997</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C381" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D381" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G381" s="27">
+        <v>148.06378124999995</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C382" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D382" s="24">
+        <v>2020</v>
+      </c>
+      <c r="G382" s="27">
+        <v>151.66744999999995</v>
       </c>
     </row>
   </sheetData>
